--- a/ExcelTemplate/AutomatedData.xlsx
+++ b/ExcelTemplate/AutomatedData.xlsx
@@ -9,20 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="FilesTab" sheetId="11" r:id="rId2"/>
     <sheet name="Normalization" sheetId="5" r:id="rId3"/>
     <sheet name="Workflow-5" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId5"/>
-    <sheet name="Workflow-6" sheetId="10" r:id="rId6"/>
-    <sheet name="Workflow-7" sheetId="13" r:id="rId7"/>
-    <sheet name="Workflow-8" sheetId="12" r:id="rId8"/>
+    <sheet name="Workflow-6" sheetId="10" r:id="rId5"/>
+    <sheet name="Workflow-7" sheetId="13" r:id="rId6"/>
+    <sheet name="Workflow-8" sheetId="12" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Workflow-5'!$H$1:$K$2</definedName>
@@ -3002,11 +3001,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3584,7 +3583,7 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -4920,7 +4919,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -6930,22 +6929,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A157" workbookViewId="0">
       <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
@@ -9233,8 +9220,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:E856"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
@@ -15880,7 +15868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F107"/>
